--- a/tables/peel_tables.xlsx
+++ b/tables/peel_tables.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4C9D22-A485-F442-A7BA-F185775CDED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FD6AA-5715-0843-840A-4206BCA6B608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="8400" windowWidth="25640" windowHeight="14440" activeTab="3" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9780" yWindow="3940" windowWidth="33700" windowHeight="19540" activeTab="5" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sampletable" sheetId="3" r:id="rId3"/>
     <sheet name="ntable" sheetId="4" r:id="rId4"/>
+    <sheet name="sedrap" sheetId="5" r:id="rId5"/>
+    <sheet name="sedmon" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="210">
   <si>
     <t>Table</t>
   </si>
@@ -987,13 +989,414 @@
   </si>
   <si>
     <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>RAP variable</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Qualitative assessment</t>
+  </si>
+  <si>
+    <t>Yellow/brown to depth of core</t>
+  </si>
+  <si>
+    <t>Yellow/brown overlying grey</t>
+  </si>
+  <si>
+    <t>Yellow/brown overlying black</t>
+  </si>
+  <si>
+    <t>Grey to depth of core</t>
+  </si>
+  <si>
+    <t>Black to depth of core</t>
+  </si>
+  <si>
+    <t>RAP score</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>Coarse grainy</t>
+  </si>
+  <si>
+    <t>Fine grainy</t>
+  </si>
+  <si>
+    <t>Smooth and silky</t>
+  </si>
+  <si>
+    <t>Oozy and slick/sticky</t>
+  </si>
+  <si>
+    <t>Odour</t>
+  </si>
+  <si>
+    <t>No odour of hydrogen sulfide (‘rotten egg gas’)</t>
+  </si>
+  <si>
+    <t>Mild odour of hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>Moderate odour of hydrogen sulfide</t>
+  </si>
+  <si>
+    <t>Strong odour of hydrogen sulphide</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Sediment characteristic</t>
+  </si>
+  <si>
+    <t>Sampling method</t>
+  </si>
+  <si>
+    <t>Sites and replication</t>
+  </si>
+  <si>
+    <t>Sampling frequency</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Representative spread of previously surveyed sites in Good, Fair and Poor condition (e.g. Fig. 6.11).&lt;br&gt;·  Further sites added depending on resourcing and monitoring objectives.  &lt;br&gt;·  Additional, more intensive monitoring of ‘watch’ areas, i.e. those at greatest risk of impacted sediment condition (e.g. Fig. 6.11).</t>
+    </r>
+  </si>
+  <si>
+    <t>· Summer and winter, every 3 (maximum 5) years.&lt;br&gt;· Monitoring will take ~4–6 days per season, depending on the number of sampling sites.</t>
+  </si>
+  <si>
+    <t>· Rapid Assessment Protocol (RAP).</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RAP shown to be a robust, cost-effective approach for quantifying sediment condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enables variability in sediment condition to be quantified, both among seasons and over sampling years.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As for sediment condition if resources allow, or at a subset of sites spanning good-poor sediment in the basins and rivers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intensive lab analyses are required to measure these sediment characteristics.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**Justification**&lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sediment condition summarises texture (muddiness), colour (oxygen availability) and odour (presence of toxic sulphides).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;·  Biologically-relevant measure of benthic environmental health</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The more sites that are regularly monitored, the more robust is the resulting map of sediment condition.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;·  Monitoring sites across ‘watch’ areas allows trends in highly impacted sediments to be tracked and better managed.</t>
+    </r>
+  </si>
+  <si>
+    <t>**Sediment condition**</t>
+  </si>
+  <si>
+    <t>**Sediment grain size, Organic Carbon, Total Nitrogen**</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Summer and winter, every 5 (maximum 10) years.&lt;br&gt;· Monitoring will take ~6–12 days per season, depending on the number of sampling sites.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As for sediment condition.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt; · Allows relationships between sediment condition and enrichment to be better refined as monitoring database grows over time. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As for sediment condition.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;**NB**: *resourcing costs will be substantially higher than for the RAP, given the far greater field time and costs of lab analyses.*</t>
+    </r>
+  </si>
+  <si>
+    <t>**Justification**&lt;br&gt;·  These quantitative parameters are complementary to the score-based RAP.&lt;br&gt;·  Provide key data on the severity of nutrient enrichment.&lt;br&gt;·  Useful contextual information that is often recorded in other sediment monitoring programs, so provide a useful basis for cross-system comparisons.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>See field and laboratory methods outlined in section 6.4.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1078,8 +1481,87 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,8 +1598,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1162,11 +1680,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1255,6 +1861,97 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2380,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4070285A-350F-7F4A-AA6F-FB4190531771}">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2482,4 +3179,268 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C54420-D16B-1F4D-8B7A-807420AB5943}">
+  <dimension ref="B1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="2:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="42" x14ac:dyDescent="0.2">
+      <c r="B3" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="51">
+        <v>5</v>
+      </c>
+      <c r="E4" s="51">
+        <v>4</v>
+      </c>
+      <c r="F4" s="51">
+        <v>3</v>
+      </c>
+      <c r="G4" s="51">
+        <v>2</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="52"/>
+      <c r="G5" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="51">
+        <v>5</v>
+      </c>
+      <c r="E6" s="51">
+        <v>4</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="51">
+        <v>2</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="70" x14ac:dyDescent="0.2">
+      <c r="B7" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="52"/>
+      <c r="G7" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="55">
+        <v>5</v>
+      </c>
+      <c r="E8" s="55">
+        <v>4</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="55">
+        <v>2</v>
+      </c>
+      <c r="H8" s="55">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D4AA7-DAB5-8347-AFD2-1E5C665FE650}">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="60"/>
+    <col min="2" max="5" width="35.83203125" style="60" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="105" x14ac:dyDescent="0.2">
+      <c r="B7" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/peel_tables.xlsx
+++ b/tables/peel_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FD6AA-5715-0843-840A-4206BCA6B608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661E5B1A-CB6B-794A-B5AF-B38E8683A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="3940" windowWidth="33700" windowHeight="19540" activeTab="5" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="33700" windowHeight="19540" activeTab="6" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ntable" sheetId="4" r:id="rId4"/>
     <sheet name="sedrap" sheetId="5" r:id="rId5"/>
     <sheet name="sedmon" sheetId="6" r:id="rId6"/>
+    <sheet name="macmon" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="239">
   <si>
     <t>Table</t>
   </si>
@@ -1391,12 +1392,685 @@
       <t>See field and laboratory methods outlined in section 6.4.</t>
     </r>
   </si>
+  <si>
+    <t>Sampling seasons</t>
+  </si>
+  <si>
+    <t>Interannual frequency</t>
+  </si>
+  <si>
+    <r>
+      <t>**Justification** &lt;br&gt;·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reflects species ability to capture nutrient and light resources and produce plant mass. Broader measure of ‘productivity’.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt; ·    Useful measure for ecosystem modelling.&lt;br&gt;·    Maintains continuity across historical data set.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintaining continuity across historical data set.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Existing sites: maintaining continuity across historical data set; fewer sites/ less replication is not recommended due to macrophyte variability.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt; ·    New sites: ability to capture emerging trends or stressors; better representation across estuary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maintaining continuity across historical data set.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;·    Both seasons coincide with peak biomass (e.g. Wilson et al., 1999).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annual surveys have greatest ability to detect trends.&lt;br&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">·    Less frequent surveys have lower capacity to distinguish real trends (‘signal’) from natural variability (‘noise’). </t>
+    </r>
+  </si>
+  <si>
+    <t>**Justification** &lt;br&gt;·    Complementary, space-based metric to biomass, prioritising aerial coverage rather than weight.&lt;br&gt;·    Key measure for spatial mapping of benthic habitat.</t>
+  </si>
+  <si>
+    <t>**Justification**&lt;br&gt;·    Shows full, rather than site-based, macrophyte cover across all aerially-visible estuary substrate.&lt;br&gt;·    Map-based benchmark for tracking wider-scale spatial changes in macrophyte cover over time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Macrophyte characteristic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(and order of priority)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF833C0B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF833C0B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Biomass of each species **&lt;br&gt;&lt;br&gt;(Species contributions to the community, based on their dry weight in a given area)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Macrophyte cores (as per the methods in this report).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60 sites; same 51 sites as in 2017/18 (Fig. 7.1), plus 3 others in each the lower Murray, Serpentine and Harvey rivers. &lt;br&gt;·    Other sites added as needed, or as resources allow.&lt;br&gt;·    Five replicate cores per site.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autumn and spring</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annually if resources allow.&lt;br&gt;·    Alternatively, every 3 (maximum 5) years.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF833C0B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF833C0B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Percentage cover of each species**&lt;br&gt; (Species contributions to the community, based on the amount of substrate surface they occupy in a given area)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video transects at each site with a boat-mounted camera-GPS-depth sounder system* &lt;br&gt; ·    Cover estimated from video stills in image analysis software* &lt;br&gt; (*NB; water clarity and close co-occurrence of some species may impact this method at some sites)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Same sites as for biomass.&lt;br&gt;·    Five replicate stills of the best video imagery analysed for each site.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Autumn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As for biomass</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enables a large quantity of data to be collected quickly.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;·    A digital library of all imagery can be stored for future reference.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enables comparisons between biomass and cover data sets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Water clarity usually best in autumn.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;br&gt;·    Enables comparisons between autumn biomass and cover data sets.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>**3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <color rgb="FF833C0B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF833C0B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spatial mapping of macrophyte cover**&lt;br&gt;(Full spatial coverage of macrophytes across the estuary substrate, where it is aerially visible)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Satellite imagery with accompanying macrophyte classification in GIS*. &lt;br&gt; ·    Ground validation of image classification (supported by the above biomass/percentage cover data recorded in the field). &lt;br&gt;(*NB; water clarity and close co-occurring of some taxa may impact this method at some sites)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N/A (whole estuary covered)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Every 5 (maximum 10) years</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shows full, rather than site-based, macrophyte cover across all aerially-visible estuary substrate.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt;·    Capitalises on use of field-based measurements of macrophytes from components 1-2 above. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Provides a reasonable time series of major changes in cover.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1560,8 +2234,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF833C0B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF833C0B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1634,8 +2371,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1768,11 +2511,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1918,39 +2685,70 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3192,12 +3990,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
     </row>
     <row r="2" spans="2:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="38" t="s">
@@ -3358,86 +4156,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D4AA7-DAB5-8347-AFD2-1E5C665FE650}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="60"/>
-    <col min="2" max="5" width="35.83203125" style="60" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="60"/>
+    <col min="2" max="5" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="60" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="64" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="105" x14ac:dyDescent="0.2">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="64" t="s">
         <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EEF5CE-61B5-7F44-A7D7-6C53AFA85025}">
+  <dimension ref="B1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="68"/>
+    <col min="2" max="5" width="29" style="68" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="B3" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="71" customFormat="1" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="121" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="76" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="151" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="105" x14ac:dyDescent="0.2">
+      <c r="B8" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/tables/peel_tables.xlsx
+++ b/tables/peel_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661E5B1A-CB6B-794A-B5AF-B38E8683A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A881CF7-836E-4541-B1C4-5C1C3455186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="33700" windowHeight="19540" activeTab="6" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="33700" windowHeight="19540" activeTab="7" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="sedrap" sheetId="5" r:id="rId5"/>
     <sheet name="sedmon" sheetId="6" r:id="rId6"/>
     <sheet name="macmon" sheetId="7" r:id="rId7"/>
+    <sheet name="synthesis" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="311">
   <si>
     <t>Table</t>
   </si>
@@ -2065,12 +2066,314 @@
       <t>Provides a reasonable time series of major changes in cover.</t>
     </r>
   </si>
+  <si>
+    <t>DSS components and sub-components</t>
+  </si>
+  <si>
+    <t>Sub-component description</t>
+  </si>
+  <si>
+    <t>Book chapter</t>
+  </si>
+  <si>
+    <t>Characterises the water flows and nutrient export from each sub-catchment and land-use type to the estuary.</t>
+  </si>
+  <si>
+    <t>Chapter 2</t>
+  </si>
+  <si>
+    <t>Characterises water flows, retention, salinity and stratification within the estuary.</t>
+  </si>
+  <si>
+    <t>Chapter 3</t>
+  </si>
+  <si>
+    <t>Characterises estuarine water quality, including detailed measures of physical parameters (e.g. dissolved oxygen) and chemical parameters (e.g. nutrient concentrations).</t>
+  </si>
+  <si>
+    <t>Chapter 4</t>
+  </si>
+  <si>
+    <t>Traces nutrient ‘source to fate pathways’ using isotopic ‘fingerprints’ or signatures. These signatures have also been used to validate and improve the catchment and estuary models.</t>
+  </si>
+  <si>
+    <t>Chapter 5</t>
+  </si>
+  <si>
+    <t>Sediment type/quality and macrophyte (seagrass and macroalgae) biomass were also integrated into the estuary models to capture their influences on hydrodynamics and/or water quality.</t>
+  </si>
+  <si>
+    <t>Chapters 6 and 7</t>
+  </si>
+  <si>
+    <t>Encompasses a set of indicators reflecting aspects of water condition, e.g. water age, salinity, dissolved oxygen, nutrients and chlorophyll-a. These indicators were calculated using the estuary models and have been mapped across the estuary using colour-coded scales.</t>
+  </si>
+  <si>
+    <t>Chapters 3, 4 and 11</t>
+  </si>
+  <si>
+    <t>Includes quantitative measures of sediment enrichment (nutrient and organic matter concentrations) and mud content, recorded at a large number of field sites in 2016 then mapped across the estuary using colour-coded scales. A score-based ‘Rapid Assessment Protocol’ (RAP) of sediment colour, texture and odour, which was validated using the above empirical data, was also used to identify and map ‘good-poor’ sediments.</t>
+  </si>
+  <si>
+    <t>Chapter 6</t>
+  </si>
+  <si>
+    <t>Encompasses a complementary set of biotic indices that reflect the ecological health status of different types of biotic communities (see below). Each biotic index was calculated by distilling quantitative metrics of community health into simple report card grades (‘A’, very good, to ‘E’, very poor), which were then mapped across the estuary using colour-coded scales.</t>
+  </si>
+  <si>
+    <t>See below</t>
+  </si>
+  <si>
+    <t>Health of the seagrass and macroalgal communities from 1978-2018.</t>
+  </si>
+  <si>
+    <t>Chapter 7</t>
+  </si>
+  <si>
+    <t>Health of the small, bottom-dwelling invertebrate community (e.g. worms and molluscs) from 2017-2018.</t>
+  </si>
+  <si>
+    <t>Chapter 8</t>
+  </si>
+  <si>
+    <t>Health of the fish community from 1978-2018.</t>
+  </si>
+  <si>
+    <t>Chapter 9</t>
+  </si>
+  <si>
+    <t>Encompasses a set of estuarine ecosystem services that represent quantitative proxies of the key ecological values identified by Peel stakeholders. These ecosystem services were calculated using the estuary response models and/or ecological health indices, then mapped across the estuary using colour-coded scales.</t>
+  </si>
+  <si>
+    <t>Estuary-scale retention of nutrients.</t>
+  </si>
+  <si>
+    <t>Overall water quality health, calculated by integrating various key water quality metrics and reflecting them as a simple report card grade. These grades were then mapped across the estuary using colour-coded scales.</t>
+  </si>
+  <si>
+    <r>
+      <t>Probability of dissolved oxygen concentrations falling below a critical threshold for estuarine fauna (&lt; 4 mg L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), which is a known risk factor driving poor water quality and causing fish-kill events.</t>
+    </r>
+  </si>
+  <si>
+    <t>Water turbidity.</t>
+  </si>
+  <si>
+    <t>Probability of blue-green algae or dinoflagellate blooms, calculated by integrating various water quality conditions known to be key drivers of bloom formation.</t>
+  </si>
+  <si>
+    <t>Suitability of habitats for juvenile and adult Blue Swimmer Crabs, calculated by integrating key water quality, sediment and macrophyte conditions known to influence crab survival or preferences.</t>
+  </si>
+  <si>
+    <t>Health of the fish community (see above).</t>
+  </si>
+  <si>
+    <t>Chapter 11</t>
+  </si>
+  <si>
+    <t>As above</t>
+  </si>
+  <si>
+    <t>1. COUPLED CATCHMENT-ESTUARY RESPONSE MODEL</t>
+  </si>
+  <si>
+    <t>2. ESTUARINE ECOSYSTEM HEALTH INDICATORS</t>
+  </si>
+  <si>
+    <t>3. ECONOMIC RESILIENCE INDICATORS</t>
+  </si>
+  <si>
+    <t>Encompasses a set of factors that reflect the degree of industry specialisation within the Peel regional economy. These factors were calculated from econometric models and scored to provide measurable proxies for the key economic values identified by Peel stakeholders.</t>
+  </si>
+  <si>
+    <t>Chapters 10 and 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry specialisation in an economy provides an advantage during growth periods, but risks longer-term stability to economic ‘shocks’. Diversity on the other hand provides alternate pathways for livelihoods and improves resilience. </t>
+  </si>
+  <si>
+    <t>Clustering of industries describes the degree to which export-oriented job growth can lead to growth in supporting sectors and nearby economies. Key attributes that enhance clustering include inter-industry linkages and support for growing and underdeveloped industries.</t>
+  </si>
+  <si>
+    <t>Encompasses a set of factors that reflect employment growth of the Peel region (relative to the rest of WA) for the 2006-2016 census periods. These factors were calculated from econometric models and scored to provide measurable proxies for the key economic values identified by Peel stakeholders.</t>
+  </si>
+  <si>
+    <t>Degree of export-orientation of a regional economy (e.g. through sectors such as mining, agriculture and tourism) is an important determinant of job creation and can be impacted by land planning decisions.</t>
+  </si>
+  <si>
+    <t>Unemployment is an indicator of competition since low unemployment drives wage growth and affects competitiveness.</t>
+  </si>
+  <si>
+    <t>Job creation is driven by export-oriented industries fuelling the need for labour, and is further strengthened by efficient spill-over effects on supporting industries.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>       *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Macrophyte Community Index*</t>
+    </r>
+  </si>
+  <si>
+    <t>**Ecological health**</t>
+  </si>
+  <si>
+    <t>**Ecosystem services **</t>
+  </si>
+  <si>
+    <t>·      *Industry Specialisation &amp; Diversity*</t>
+  </si>
+  <si>
+    <t>·      *Clustering*</t>
+  </si>
+  <si>
+    <t>·      *Export Orientation*</t>
+  </si>
+  <si>
+    <t>·      *Unemployment*</t>
+  </si>
+  <si>
+    <t>·      *Local Job Creation *</t>
+  </si>
+  <si>
+    <t>**Competitive advantage**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Comparative advantage** </t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>      *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Benthic Community Index*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>      *</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fish Community Index*</t>
+    </r>
+  </si>
+  <si>
+    <t>·      *Nutrient Export &amp; Assimilation*</t>
+  </si>
+  <si>
+    <t>·      *Composite Index of Water Quality*</t>
+  </si>
+  <si>
+    <t>·      *Hypoxia Likelihood*</t>
+  </si>
+  <si>
+    <t>·      *Water Clarity*</t>
+  </si>
+  <si>
+    <t>·      *Harmful Algal Bloom Index*</t>
+  </si>
+  <si>
+    <t>·      *Crab Habitat Index*</t>
+  </si>
+  <si>
+    <t>·      *Fish Community Index*</t>
+  </si>
+  <si>
+    <t>**Catchment model**</t>
+  </si>
+  <si>
+    <t>**Estuary hydrodynamics model**</t>
+  </si>
+  <si>
+    <t>**Estuary biogeochemical model**</t>
+  </si>
+  <si>
+    <t>**Nutrient isotopes**</t>
+  </si>
+  <si>
+    <t>**Other environmental components**</t>
+  </si>
+  <si>
+    <t>**Water quality**</t>
+  </si>
+  <si>
+    <t>**Sediment quality**</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2297,8 +2600,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF695D46"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2377,8 +2720,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B8891"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCC9CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2535,11 +2902,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC9C9C9"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC9C9C9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC9C9C9"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2749,6 +3192,73 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4245,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EEF5CE-61B5-7F44-A7D7-6C53AFA85025}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4378,4 +4888,402 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F1F740-E1EB-C945-802D-F9C9771AD464}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69.6640625" customWidth="1"/>
+    <col min="2" max="4" width="58.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="85" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="101" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="59" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="100" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B28" s="99" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>